--- a/maps/MedicationAdministration-MedicationAdministration.xlsx
+++ b/maps/MedicationAdministration-MedicationAdministration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nictiznl-my.sharepoint.com/personal/jacob_engel_nictiz_nl/Documents/Documenten/GitHub/eu-nl-compared/maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{C7E22464-8063-5A48-8AF8-B8CBF9685F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B24BE418-93F5-F44F-9CF5-3C54F3DB1B9D}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{C7E22464-8063-5A48-8AF8-B8CBF9685F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21D759E2-77DE-3441-A6F3-6E318963CE52}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="4140" windowWidth="22880" windowHeight="12160" xr2:uid="{4D4295CA-5E27-D54A-800A-CCB7595BF199}"/>
+    <workbookView xWindow="1620" yWindow="4140" windowWidth="22880" windowHeight="17700" xr2:uid="{4D4295CA-5E27-D54A-800A-CCB7595BF199}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -194,12 +194,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81200B0-CEC8-5048-84D0-94AD3B33B9B6}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,11 +619,17 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -631,6 +640,9 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -639,76 +651,75 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B28" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3af30693-c405-4a5b-908a-bd1dc294f76b" xsi:nil="true"/>
+    <Inhoud xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BAFAE49EF5FC2A44A9A24B379C77993A" ma:contentTypeVersion="18" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="4e3f09d53704208a567efd423a8e8ffb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b19602bd-a67a-4df8-b412-b401dd608f7a" xmlns:ns3="3af30693-c405-4a5b-908a-bd1dc294f76b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5e8dd9eed0ce6952e5fe39cbc0c50bd" ns2:_="" ns3:_="">
     <xsd:import namespace="b19602bd-a67a-4df8-b412-b401dd608f7a"/>
@@ -965,18 +976,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3af30693-c405-4a5b-908a-bd1dc294f76b" xsi:nil="true"/>
-    <Inhoud xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b19602bd-a67a-4df8-b412-b401dd608f7a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -987,6 +986,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241DE56B-E2EC-4E30-AC8D-4AB6A28A3301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3af30693-c405-4a5b-908a-bd1dc294f76b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b19602bd-a67a-4df8-b412-b401dd608f7a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B86FE5E-2434-4C60-8EC6-120394B85E87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1005,23 +1021,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241DE56B-E2EC-4E30-AC8D-4AB6A28A3301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b19602bd-a67a-4df8-b412-b401dd608f7a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3af30693-c405-4a5b-908a-bd1dc294f76b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7B65A42-2736-49D0-A9A9-513B474E3798}">
   <ds:schemaRefs>
